--- a/Examples/vcr/vcr_model.xlsx
+++ b/Examples/vcr/vcr_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\vcr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AD6A1D-FC1E-49F0-831F-6B20486CB75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9DDD8B-081C-4024-A7DA-9BDBB6C6C5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24390" windowHeight="14700" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="0" windowWidth="25740" windowHeight="14700" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -21,9 +21,6 @@
     <sheet name="Format" sheetId="6" r:id="rId6"/>
     <sheet name="WasteDefinition" sheetId="8" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$6</definedName>
     <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$4</definedName>
@@ -94,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
   <si>
     <t>key</t>
   </si>
@@ -271,6 +268,18 @@
   </si>
   <si>
     <t>B3-B4</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
   </si>
 </sst>
 </file>
@@ -416,245 +425,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Reference"/>
-      <sheetName val="CMP75"/>
-      <sheetName val="TCND35"/>
-      <sheetName val="TEVP12"/>
-      <sheetName val="DTCND"/>
-      <sheetName val="DTEVP"/>
-      <sheetName val="Exergía"/>
-      <sheetName val="Diagrama"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>B1</v>
-          </cell>
-          <cell r="G2">
-            <v>24.59</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>B2</v>
-          </cell>
-          <cell r="G3">
-            <v>65.25</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>B3</v>
-          </cell>
-          <cell r="G4">
-            <v>55.81</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>B4</v>
-          </cell>
-          <cell r="G5">
-            <v>49.93</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>WC</v>
-          </cell>
-          <cell r="G6">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>QEVP</v>
-          </cell>
-          <cell r="G7">
-            <v>18.059999999999999</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>QCND</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="G2">
-            <v>23.05</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="G3">
-            <v>61.42</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>52.32</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>46.81</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7">
-            <v>16.93</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="G2">
-            <v>22.2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="G3">
-            <v>63.03</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>50.81</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>44.03</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7">
-            <v>15.56</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="G2">
-            <v>21.01</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="G3">
-            <v>61.69</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>52.69</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>46.53</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7">
-            <v>16.91</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="G2">
-            <v>24.59</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="G3">
-            <v>65.25</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>55.95</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>49.35</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7">
-            <v>17.64</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="G2">
-            <v>24.98</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="G3">
-            <v>65.599999999999994</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>56.25</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>50.32</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7">
-            <v>18.05</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -959,7 +729,7 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1071,54 +841,48 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>[1]Reference!A2</f>
-        <v>B1</v>
+      <c r="A2" t="s">
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>[1]Reference!A3</f>
-        <v>B2</v>
+      <c r="A3" t="s">
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>[1]Reference!A4</f>
-        <v>B3</v>
+      <c r="A4" t="s">
+        <v>61</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>[1]Reference!A5</f>
-        <v>B4</v>
+      <c r="A5" t="s">
+        <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>[1]Reference!A6</f>
-        <v>WC</v>
+      <c r="A6" t="s">
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>[1]Reference!A7</f>
-        <v>QEVP</v>
+      <c r="A7" t="s">
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1133,9 +897,8 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f>[1]Reference!A9</f>
-        <v>QCND</v>
+      <c r="A9" t="s">
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
@@ -1286,7 +1049,7 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9:G9"/>
     </sheetView>
   </sheetViews>
@@ -1319,182 +1082,140 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>[1]Reference!A2</f>
-        <v>B1</v>
+      <c r="A2" t="s">
+        <v>59</v>
       </c>
       <c r="B2">
-        <f>[1]Reference!G2</f>
         <v>24.59</v>
       </c>
       <c r="C2">
-        <f>[1]CMP75!G2</f>
         <v>23.05</v>
       </c>
       <c r="D2">
-        <f>[1]TCND35!G2</f>
         <v>22.2</v>
       </c>
       <c r="E2">
-        <f>[1]TEVP12!G2</f>
         <v>21.01</v>
       </c>
       <c r="F2">
-        <f>[1]DTCND!G2</f>
         <v>24.59</v>
       </c>
       <c r="G2">
-        <f>[1]DTEVP!G2</f>
         <v>24.98</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>[1]Reference!A3</f>
-        <v>B2</v>
+      <c r="A3" t="s">
+        <v>60</v>
       </c>
       <c r="B3">
-        <f>[1]Reference!G3</f>
         <v>65.25</v>
       </c>
       <c r="C3">
-        <f>[1]CMP75!G3</f>
         <v>61.42</v>
       </c>
       <c r="D3">
-        <f>[1]TCND35!G3</f>
         <v>63.03</v>
       </c>
       <c r="E3">
-        <f>[1]TEVP12!G3</f>
         <v>61.69</v>
       </c>
       <c r="F3">
-        <f>[1]DTCND!G3</f>
         <v>65.25</v>
       </c>
       <c r="G3">
-        <f>[1]DTEVP!G3</f>
         <v>65.599999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>[1]Reference!A4</f>
-        <v>B3</v>
+      <c r="A4" t="s">
+        <v>61</v>
       </c>
       <c r="B4">
-        <f>[1]Reference!G4</f>
         <v>55.81</v>
       </c>
       <c r="C4">
-        <f>[1]CMP75!G4</f>
         <v>52.32</v>
       </c>
       <c r="D4">
-        <f>[1]TCND35!G4</f>
         <v>50.81</v>
       </c>
       <c r="E4">
-        <f>[1]TEVP12!G4</f>
         <v>52.69</v>
       </c>
       <c r="F4">
-        <f>[1]DTCND!G4</f>
         <v>55.95</v>
       </c>
       <c r="G4">
-        <f>[1]DTEVP!G4</f>
         <v>56.25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>[1]Reference!A5</f>
-        <v>B4</v>
+      <c r="A5" t="s">
+        <v>62</v>
       </c>
       <c r="B5">
-        <f>[1]Reference!G5</f>
         <v>49.93</v>
       </c>
       <c r="C5">
-        <f>[1]CMP75!G5</f>
         <v>46.81</v>
       </c>
       <c r="D5">
-        <f>[1]TCND35!G5</f>
         <v>44.03</v>
       </c>
       <c r="E5">
-        <f>[1]TEVP12!G5</f>
         <v>46.53</v>
       </c>
       <c r="F5">
-        <f>[1]DTCND!G5</f>
         <v>49.35</v>
       </c>
       <c r="G5">
-        <f>[1]DTEVP!G5</f>
         <v>50.32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>[1]Reference!A6</f>
-        <v>WC</v>
+      <c r="A6" t="s">
+        <v>51</v>
       </c>
       <c r="B6">
-        <f>[1]Reference!G6</f>
         <v>50</v>
       </c>
       <c r="C6">
-        <f>[1]CMP75!G6</f>
         <v>50</v>
       </c>
       <c r="D6">
-        <f>[1]TCND35!G6</f>
         <v>50</v>
       </c>
       <c r="E6">
-        <f>[1]TEVP12!G6</f>
         <v>50</v>
       </c>
       <c r="F6">
-        <f>[1]DTCND!G6</f>
         <v>50</v>
       </c>
       <c r="G6">
-        <f>[1]DTEVP!G6</f>
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>[1]Reference!A7</f>
-        <v>QEVP</v>
+      <c r="A7" t="s">
+        <v>53</v>
       </c>
       <c r="B7">
-        <f>[1]Reference!G7</f>
         <v>18.059999999999999</v>
       </c>
       <c r="C7">
-        <f>[1]CMP75!G7</f>
         <v>16.93</v>
       </c>
       <c r="D7">
-        <f>[1]TCND35!G7</f>
         <v>15.56</v>
       </c>
       <c r="E7">
-        <f>[1]TEVP12!G7</f>
         <v>16.91</v>
       </c>
       <c r="F7">
-        <f>[1]DTCND!G7</f>
         <v>17.64</v>
       </c>
       <c r="G7">
-        <f>[1]DTEVP!G7</f>
         <v>18.05</v>
       </c>
     </row>
@@ -1528,9 +1249,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f>[1]Reference!A9</f>
-        <v>QCND</v>
+      <c r="A9" t="s">
+        <v>56</v>
       </c>
       <c r="B9">
         <f>B3-B4</f>

--- a/Examples/vcr/vcr_model.xlsx
+++ b/Examples/vcr/vcr_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\vcr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9DDD8B-081C-4024-A7DA-9BDBB6C6C5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0047B07-EC31-4FE2-B50A-5F0F94C9EAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="0" windowWidth="25740" windowHeight="14700" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="750" windowWidth="21600" windowHeight="14730" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -20,10 +20,11 @@
     <sheet name="Exergy" sheetId="3" r:id="rId5"/>
     <sheet name="Format" sheetId="6" r:id="rId6"/>
     <sheet name="WasteDefinition" sheetId="8" r:id="rId7"/>
+    <sheet name="Index" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$6</definedName>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$4</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$B$4</definedName>
     <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$C$7</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
   </definedNames>
@@ -91,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
   <si>
     <t>key</t>
   </si>
@@ -280,6 +281,42 @@
   </si>
   <si>
     <t>B4</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Exergy</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>WasteDefinition</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Flows Data</t>
+  </si>
+  <si>
+    <t>Processes Data</t>
+  </si>
+  <si>
+    <t>Exergy Data</t>
+  </si>
+  <si>
+    <t>Format Data</t>
+  </si>
+  <si>
+    <t>Waste Definition</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -316,13 +353,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.24994659260841701"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-4.9958800012207406E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,7 +742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C687277-95FE-4E40-A6B2-D0E1B5D23749}">
   <sheetPr codeName="Hoja1">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -723,13 +760,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06C4217-4791-4208-9013-F2727E1FDCDC}">
   <sheetPr codeName="Hoja2">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -818,7 +855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F03B3E-C976-4CD4-BAB0-922AA47CBE5F}">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -828,8 +865,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -923,20 +960,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4538BCD-DD75-4A9A-9D48-216F336EA2C7}">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
@@ -947,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -964,13 +1001,13 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>47</v>
@@ -981,13 +1018,13 @@
         <v>44</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>48</v>
@@ -998,13 +1035,13 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>50</v>
@@ -1015,13 +1052,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>56</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>49</v>
@@ -1036,7 +1073,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D5 D2:D3</xm:sqref>
+          <xm:sqref>B4:B5 B2:B3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1045,7 +1082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56E86D0-160D-4DBF-96DE-EB0BCE469373}">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -1056,6 +1093,12 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1224,27 +1267,21 @@
         <v>57</v>
       </c>
       <c r="B8">
-        <f>B4-B5</f>
         <v>5.8800000000000026</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:G8" si="0">C4-C5</f>
         <v>5.509999999999998</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
         <v>6.7800000000000011</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
         <v>6.1599999999999966</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
         <v>6.6000000000000014</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
         <v>5.93</v>
       </c>
     </row>
@@ -1253,27 +1290,21 @@
         <v>56</v>
       </c>
       <c r="B9">
-        <f>B3-B4</f>
         <v>9.4399999999999977</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:G9" si="1">C3-C4</f>
         <v>9.1000000000000014</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
         <v>12.219999999999999</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
         <v>9.2999999999999972</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
         <v>9.3499999999999943</v>
       </c>
     </row>
@@ -1283,7 +1314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6F7A63-C3EE-47B8-B362-70F12AC021C0}">
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1293,7 +1324,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1400,7 +1434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9273F0-482F-4C24-AF94-834D3A4AA1F7}">
   <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1410,8 +1444,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1427,7 +1462,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
@@ -1438,7 +1473,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -1449,7 +1484,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Waste Recycling" error="Waste recycling ratio must be between 0 and 1" sqref="C2" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Waste Recycling" error="Waste recycling ratio must be between 0 and 1" sqref="C2" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -1469,4 +1504,88 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C37247-0361-4629-BBB2-A1BA403EEF35}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>